--- a/AWJLEagleLib.xlsx
+++ b/AWJLEagleLib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -277,6 +277,132 @@
   </si>
   <si>
     <t>Last Updated 13/04/2013</t>
+  </si>
+  <si>
+    <t>2N7002</t>
+  </si>
+  <si>
+    <t>N-channel MOSFET</t>
+  </si>
+  <si>
+    <t>http://www.fairchildsemi.com/ds/2N/2N7000.pdf</t>
+  </si>
+  <si>
+    <t>78LXX</t>
+  </si>
+  <si>
+    <t>SO08</t>
+  </si>
+  <si>
+    <t>AP1117</t>
+  </si>
+  <si>
+    <t>AP1117 LDO linear regulator</t>
+  </si>
+  <si>
+    <t>http://www.diodes.com/datasheets/AP1117.pdf</t>
+  </si>
+  <si>
+    <t>ATTiny24</t>
+  </si>
+  <si>
+    <t>SO14, DIL14</t>
+  </si>
+  <si>
+    <t>ATTiny24, 44 microcontroller</t>
+  </si>
+  <si>
+    <t>http://www.atmel.com/Images/doc8006.pdf</t>
+  </si>
+  <si>
+    <t>DS1337</t>
+  </si>
+  <si>
+    <t>DIL08, SO08, MSOP08</t>
+  </si>
+  <si>
+    <t>Dallas 1337 RTC</t>
+  </si>
+  <si>
+    <t>http://datasheets.maximintegrated.com/en/ds/DS1337-DS1337C.pdf</t>
+  </si>
+  <si>
+    <t>LM2576</t>
+  </si>
+  <si>
+    <t>TO263-5</t>
+  </si>
+  <si>
+    <t>LM2576 "Simple Switcher"</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/lm2576.pdf</t>
+  </si>
+  <si>
+    <t>MIC2026</t>
+  </si>
+  <si>
+    <t>Micrel 2026 MOSFET driver</t>
+  </si>
+  <si>
+    <t>http://www.micrel.com/_PDF/mic2026.pdf</t>
+  </si>
+  <si>
+    <t>PMDT290</t>
+  </si>
+  <si>
+    <t>SOT666</t>
+  </si>
+  <si>
+    <t>Dual N-channel MOSFET</t>
+  </si>
+  <si>
+    <t>http://www.nxp.com/documents/data_sheet/PMDT290UNE.pdf</t>
+  </si>
+  <si>
+    <t>PMEG4050</t>
+  </si>
+  <si>
+    <t>SOD128</t>
+  </si>
+  <si>
+    <t>Schottky diode</t>
+  </si>
+  <si>
+    <t>http://www.nxp.com/documents/leaflet/75016866.pdf</t>
+  </si>
+  <si>
+    <t>TSM2323</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>P-channel MOSFET</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1701972.pdf</t>
+  </si>
+  <si>
+    <t>QFN36</t>
+  </si>
+  <si>
+    <t>USB2512</t>
+  </si>
+  <si>
+    <t>2-port USB 2.0 hub</t>
+  </si>
+  <si>
+    <t>USB2513</t>
+  </si>
+  <si>
+    <t>3-port USB 2.0 hub</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/catalog/specsheets/2512.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/catalog/specsheets/2513.pdf</t>
   </si>
 </sst>
 </file>
@@ -729,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,139 +913,139 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
+      <c r="A5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
+      <c r="A8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="19" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>46</v>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -940,227 +1066,434 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="19" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="C17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="19" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A5:E26">
+    <sortCondition ref="A5:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AWJLEagleLib.xlsx
+++ b/AWJLEagleLib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="179">
   <si>
     <t>Name</t>
   </si>
@@ -403,13 +403,163 @@
   </si>
   <si>
     <t>http://www.mouser.com/catalog/specsheets/2513.pdf</t>
+  </si>
+  <si>
+    <t>2 gate 7434 buffer</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1814863.pdf</t>
+  </si>
+  <si>
+    <t>742G34</t>
+  </si>
+  <si>
+    <t>AVRISP</t>
+  </si>
+  <si>
+    <t>3x2 header</t>
+  </si>
+  <si>
+    <t>AVR ISP header</t>
+  </si>
+  <si>
+    <t>BSL215</t>
+  </si>
+  <si>
+    <t>TSOP6</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1648246.pdf</t>
+  </si>
+  <si>
+    <t>BSS84</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/301708.pdf</t>
+  </si>
+  <si>
+    <t>DUOLED-CA</t>
+  </si>
+  <si>
+    <t>Common anode dual LED</t>
+  </si>
+  <si>
+    <t>DUOLED-CC</t>
+  </si>
+  <si>
+    <t>Common cathode dual LED</t>
+  </si>
+  <si>
+    <t>J111</t>
+  </si>
+  <si>
+    <t>SOT-23 &amp; TO-92</t>
+  </si>
+  <si>
+    <t>J11x series FET</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1727531.pdf</t>
+  </si>
+  <si>
+    <t>KCSA02</t>
+  </si>
+  <si>
+    <t>7-segment digit</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1563726.pdf</t>
+  </si>
+  <si>
+    <t>LD6806</t>
+  </si>
+  <si>
+    <t>SOT-753</t>
+  </si>
+  <si>
+    <t>NXP LD6806 LDO regulator</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1537429.pdf</t>
+  </si>
+  <si>
+    <t>LT3032</t>
+  </si>
+  <si>
+    <t>DFN-14</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1679619.pdf</t>
+  </si>
+  <si>
+    <t>LT3032 dual pos/neg LDO regulator</t>
+  </si>
+  <si>
+    <t>LTC4627</t>
+  </si>
+  <si>
+    <t>Lite-On 4 digit 7-segment display</t>
+  </si>
+  <si>
+    <t>http://media.digikey.com/pdf/Data%20Sheets/Lite-On%20PDFs/LTC-4627JR.pdf</t>
+  </si>
+  <si>
+    <t>MAX1693</t>
+  </si>
+  <si>
+    <t>UMAX10</t>
+  </si>
+  <si>
+    <t>MAX169x USB over current protection</t>
+  </si>
+  <si>
+    <t>http://datasheets.maximintegrated.com/en/ds/MAX1693-MAX1694.pdf</t>
+  </si>
+  <si>
+    <t>MCP100</t>
+  </si>
+  <si>
+    <t>Microchip microcontroller supervisor</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/11601.pdf</t>
+  </si>
+  <si>
+    <t>MCP1700</t>
+  </si>
+  <si>
+    <t>LDO voltage regulator</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1784514.pdf</t>
+  </si>
+  <si>
+    <t>TPS61093</t>
+  </si>
+  <si>
+    <t>SON10</t>
+  </si>
+  <si>
+    <t>TI switching boost regulator</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tps61093.pdf</t>
+  </si>
+  <si>
+    <t>USB-A</t>
+  </si>
+  <si>
+    <t>USB A connector</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/218880.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +578,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,10 +698,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -561,8 +728,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -855,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,529 +1086,529 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" thickTop="1">
       <c r="A5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="19" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
+      <c r="A9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="19" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>7</v>
+      <c r="A11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="19" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>43</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="D21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="19" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="D22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>68</v>
+      <c r="A24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="19" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>89</v>
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="19" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>94</v>
+      <c r="A29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="19" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>106</v>
+      <c r="A32" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="19" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1490,12 +1662,277 @@
         <v>128</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A5:E26">
-    <sortCondition ref="A5:A26"/>
+  <sortState ref="A5:E38">
+    <sortCondition ref="A4"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E42" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/AWJLEagleLib.xlsx
+++ b/AWJLEagleLib.xlsx
@@ -276,9 +276,6 @@
     <t>http://industrial.panasonic.com/www-data/pdf/AGM0000/AGM0000CE9.pdf</t>
   </si>
   <si>
-    <t>Last Updated 13/04/2013</t>
-  </si>
-  <si>
     <t>2N7002</t>
   </si>
   <si>
@@ -553,13 +550,16 @@
   </si>
   <si>
     <t>http://www.farnell.com/datasheets/218880.pdf</t>
+  </si>
+  <si>
+    <t>Last Updated 04/06/2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +594,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -728,10 +734,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1053,7 +1059,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1086,44 +1092,44 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" thickTop="1">
       <c r="A5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>52</v>
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="19" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>51</v>
@@ -1137,799 +1143,801 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="19" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="19" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="19" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>102</v>
+      <c r="C12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="19" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="A14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>7</v>
+      <c r="E16" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A17" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="19" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>46</v>
+      <c r="A22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>52</v>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>22</v>
+      <c r="A24" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>63</v>
+      <c r="A25" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="19" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="19" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>11</v>
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>68</v>
+      <c r="A31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="19" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>117</v>
+      <c r="A33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="19" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="19" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>130</v>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="19" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
+        <v>166</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="19" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="C49" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>178</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A5:E38">
+  <sortState ref="A5:E54">
     <sortCondition ref="A4"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E42" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
